--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2219.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2219.xlsx
@@ -354,13 +354,13 @@
         <v>1.28145976042494</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2219.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2219.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9280182092763241</v>
+        <v>0.9535946846008301</v>
       </c>
       <c r="B1">
-        <v>1.28145976042494</v>
+        <v>2.085201025009155</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>7.968392372131348</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>2.522231101989746</v>
       </c>
       <c r="E1">
-        <v>15</v>
+        <v>0.679522693157196</v>
       </c>
     </row>
   </sheetData>
